--- a/auto2020/data/xinhu.xlsx
+++ b/auto2020/data/xinhu.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>姓名</t>
   </si>
@@ -84,6 +85,30 @@
   </si>
   <si>
     <t>another</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>明日计划</t>
+  </si>
+  <si>
+    <t>今天完成了测试用例50条</t>
+  </si>
+  <si>
+    <t>实现自动化测试</t>
+  </si>
+  <si>
+    <t>学习了数据驱动</t>
+  </si>
+  <si>
+    <t>学习持续集成</t>
+  </si>
+  <si>
+    <t>完成了测试报告</t>
+  </si>
+  <si>
+    <t>对测试报告进行分析</t>
   </si>
 </sst>
 </file>
@@ -91,12 +116,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +145,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -120,13 +166,73 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -134,22 +240,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,84 +274,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,175 +297,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,6 +496,45 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,15 +556,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -503,41 +565,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,153 +596,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1047,57 +1080,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>15368933426</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>14733569656</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>13833468964</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>13458964578</v>
       </c>
     </row>
@@ -1112,70 +1145,123 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" ht="15.6" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="21.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="30.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
